--- a/Measured Kinematic Errors for Arm Ranges angle and distance.xlsx
+++ b/Measured Kinematic Errors for Arm Ranges angle and distance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drew1\Desktop\Embedded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{303B74B0-278B-473F-BC2E-9FFEF8074D31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD48B06-3E8E-411F-9DA5-EE79BEB64CE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9366DD51-9332-4C92-A5A4-7924FC810A33}"/>
   </bookViews>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Input PWM</t>
   </si>
   <si>
-    <t>Measured Inches</t>
-  </si>
-  <si>
-    <t>Actual Inches From Equation</t>
-  </si>
-  <si>
     <t>Expected - Experimental</t>
   </si>
   <si>
@@ -57,15 +51,6 @@
     <t>Sum Abs/total</t>
   </si>
   <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>Using Cubic Regression With R^2 = 0.996123</t>
-  </si>
-  <si>
-    <t>pwm2 = (int)((16.18807*pow(distance, 3.00))-(93.421923*pow(distance, 2.00))+((270.10013*distance)+1107.793747));</t>
-  </si>
-  <si>
     <t>Measured Degrees</t>
   </si>
   <si>
@@ -82,15 +67,45 @@
   </si>
   <si>
     <t>Simple Linear Regression</t>
+  </si>
+  <si>
+    <t>(tf, d) --&gt; (t1, t2, t3, t4) --&gt; (PWM1, PWM2, PWM3, PWM4)</t>
+  </si>
+  <si>
+    <t>(tf, d) --&gt; (PWM1, PWM2, PWM3, PWM4)</t>
+  </si>
+  <si>
+    <t>Low level thread convert 4 angles to PWM</t>
+  </si>
+  <si>
+    <t>High level thread distance and angle to Angles (t1, t2, t3, t4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured Distance </t>
+  </si>
+  <si>
+    <t>Input Distance x Inches when y = 0</t>
+  </si>
+  <si>
+    <t>Input Distance y inches when x = 3.5</t>
+  </si>
+  <si>
+    <t>Measured Distance</t>
+  </si>
+  <si>
+    <t>Expected - Exerimental</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>inch error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,9 +135,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,18 +451,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10268C4A-2054-44BF-8437-6954CD807EF5}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="36.77734375" customWidth="1"/>
     <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -456,35 +472,35 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1100</v>
+        <v>2600</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+        <v>180</v>
+      </c>
+      <c r="C2">
+        <v>180</v>
+      </c>
+      <c r="D2">
         <f>B2-C2</f>
         <v>0</v>
       </c>
@@ -493,361 +509,644 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUM(E2:E9)</f>
-        <v>1.6875</v>
+        <f>SUM(E2:E10)</f>
+        <v>16</v>
       </c>
       <c r="G2">
-        <f>1.6875/8</f>
-        <v>0.2109375</v>
+        <f>16/9</f>
+        <v>1.7777777777777777</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1238</v>
+        <v>1550</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="D3" s="1">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>92</v>
+      </c>
+      <c r="D3">
         <f>B3-C3</f>
-        <v>-0.125</v>
+        <v>-2</v>
       </c>
       <c r="E3">
         <f>ABS(D3)</f>
-        <v>0.125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1375</v>
+        <v>500</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.125</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D9" si="0">B4-C4</f>
-        <v>-0.125</v>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D10" si="0">B4-C4</f>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E9" si="1">ABS(D4)</f>
-        <v>0.125</v>
+        <f t="shared" ref="E4:E10" si="1">ABS(D4)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1500</v>
-      </c>
       <c r="B5">
-        <v>2.75</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.875</v>
-      </c>
-      <c r="D5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>46</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>-0.125</v>
+        <v>-1</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1512</v>
-      </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3.125</v>
-      </c>
-      <c r="D6" s="1">
+        <v>135</v>
+      </c>
+      <c r="C6">
+        <v>136</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>-0.125</v>
+        <v>-1</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1650</v>
-      </c>
       <c r="B7">
-        <v>3.625</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.625</v>
-      </c>
-      <c r="D7" s="1">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1925</v>
-      </c>
       <c r="B8">
-        <v>4.625</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4.75</v>
-      </c>
-      <c r="D8" s="1">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>64</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>-0.125</v>
+        <v>-4</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2200</v>
-      </c>
       <c r="B9">
-        <v>5.0625</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6.125</v>
-      </c>
-      <c r="D9" s="1">
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <v>122</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>-1.0625</v>
+        <v>-2</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>1.0625</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>8</v>
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <v>153</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F18" t="s">
         <v>4</v>
       </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f>A19-B19</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>ABS(C19)</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>SUM(D19:D29)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="F19">
+        <f>E19/11</f>
+        <v>8.5227272727272721E-2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1.5</v>
+      </c>
+      <c r="B20">
+        <f>1+7/16</f>
+        <v>1.4375</v>
+      </c>
+      <c r="C20">
+        <f>A20-B20</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D20">
+        <f>ABS(C20)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <f>2+1/16</f>
+        <v>2.0625</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C29" si="2">A21-B21</f>
+        <v>-6.25E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D29" si="3">ABS(C21)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2.5</v>
+      </c>
+      <c r="B22">
+        <f>2+7/16</f>
+        <v>2.4375</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3.5</v>
+      </c>
+      <c r="B24">
+        <f>3+7/16</f>
+        <v>3.4375</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4.5</v>
+      </c>
+      <c r="B26">
+        <f>4+5/16</f>
+        <v>4.3125</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>0.1875</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>5</v>
       </c>
-      <c r="G13" t="s">
+      <c r="B27">
+        <f>4+15/16</f>
+        <v>4.9375</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5.5</v>
+      </c>
+      <c r="B28">
+        <f>5+5/16</f>
+        <v>5.3125</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>0.1875</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2600</v>
-      </c>
-      <c r="B14">
-        <v>180</v>
-      </c>
-      <c r="C14">
-        <v>180</v>
-      </c>
-      <c r="D14">
-        <f>B14-C14</f>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f>ABS(D14)</f>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f>SUM(E14:E22)</f>
-        <v>16</v>
-      </c>
-      <c r="G14">
-        <f>16/9</f>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1550</v>
-      </c>
-      <c r="B15">
-        <v>90</v>
-      </c>
-      <c r="C15">
-        <v>92</v>
-      </c>
-      <c r="D15">
-        <f>B15-C15</f>
+      <c r="B29">
+        <v>5.75</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-3</v>
+      </c>
+      <c r="B32">
+        <f>-3-5/16</f>
+        <v>-3.3125</v>
+      </c>
+      <c r="C32">
+        <f>A32-B32</f>
+        <v>0.3125</v>
+      </c>
+      <c r="D32">
+        <f>ABS(C32)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="E32">
+        <f>SUM(D32:D44)</f>
+        <v>1.6875</v>
+      </c>
+      <c r="F32">
+        <f>E32/13</f>
+        <v>0.12980769230769232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-2.5</v>
+      </c>
+      <c r="B33">
+        <v>-2.75</v>
+      </c>
+      <c r="C33">
+        <f>A33-B33</f>
+        <v>0.25</v>
+      </c>
+      <c r="D33">
+        <f>ABS(C33)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>-2</v>
       </c>
-      <c r="E15">
-        <f>ABS(D15)</f>
+      <c r="B34">
+        <v>-2.25</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C44" si="4">A34-B34</f>
+        <v>0.25</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D44" si="5">ABS(C34)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-1.5</v>
+      </c>
+      <c r="B35">
+        <f>-1-11/16</f>
+        <v>-1.6875</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>0.1875</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-1</v>
+      </c>
+      <c r="B36">
+        <f>-1-2/16</f>
+        <v>-1.125</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-0.5</v>
+      </c>
+      <c r="B37">
+        <v>-0.5</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.5</v>
+      </c>
+      <c r="B39">
+        <f>5/8</f>
+        <v>0.625</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>-0.125</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <f>1+1/8</f>
+        <v>1.125</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>-0.125</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1.5</v>
+      </c>
+      <c r="B41">
+        <f>1+11/16</f>
+        <v>1.6875</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>-0.1875</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="5"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>500</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ref="D16:D22" si="2">B16-C16</f>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ref="E16:E22" si="3">ABS(D16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <v>46</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>135</v>
-      </c>
-      <c r="C18">
-        <v>136</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>30</v>
-      </c>
-      <c r="C19">
-        <v>27</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
+      <c r="B42">
+        <f>2+1/16</f>
+        <v>2.0625</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>-6.25E-2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2.5</v>
+      </c>
+      <c r="B43">
+        <f>2+9/16</f>
+        <v>2.5625</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>-6.25E-2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>3</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="3"/>
+      <c r="B44">
+        <f>3</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>60</v>
-      </c>
-      <c r="C20">
-        <v>64</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>-4</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>120</v>
-      </c>
-      <c r="C21">
-        <v>122</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>150</v>
-      </c>
-      <c r="C22">
-        <v>153</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>12</v>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
